--- a/EL_Electrical/Faisceau/Récap connections.xlsx
+++ b/EL_Electrical/Faisceau/Récap connections.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Faisceau Avant" sheetId="1" r:id="rId1"/>
+    <sheet name="Faisceau Arrière" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -84,8 +85,118 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bob Aubouin</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>bob Aubouin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tout les capteurs du faisceau avant
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>bob Aubouin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tout les capteurs du faisceau avant
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>bob Aubouin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tout les capteurs du faisceau avant
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>bob Aubouin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tout les capteurs du faisceau avant
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="91">
   <si>
     <t>Pare feu</t>
   </si>
@@ -226,6 +337,138 @@
   </si>
   <si>
     <t>Carte avant</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>shift cut</t>
+  </si>
+  <si>
+    <t>gearpot</t>
+  </si>
+  <si>
+    <t>wet/dry</t>
+  </si>
+  <si>
+    <t>Traction</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>log dta</t>
+  </si>
+  <si>
+    <t>RR ws</t>
+  </si>
+  <si>
+    <t>FR ws</t>
+  </si>
+  <si>
+    <t>FL ws</t>
+  </si>
+  <si>
+    <t>arbre à cam</t>
+  </si>
+  <si>
+    <t>cranckshaft</t>
+  </si>
+  <si>
+    <t>Twater</t>
+  </si>
+  <si>
+    <t>Tair</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>oil pressur</t>
+  </si>
+  <si>
+    <t>fuel pressur</t>
+  </si>
+  <si>
+    <t>5V capteurs</t>
+  </si>
+  <si>
+    <t>Masse DTA</t>
+  </si>
+  <si>
+    <t>DTA sensor</t>
+  </si>
+  <si>
+    <t>Masse cam+vilbrequin</t>
+  </si>
+  <si>
+    <t>DTA power</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>relais pompe</t>
+  </si>
+  <si>
+    <t>relais ventilo</t>
+  </si>
+  <si>
+    <t>inj1</t>
+  </si>
+  <si>
+    <t>inj2</t>
+  </si>
+  <si>
+    <t>inj3</t>
+  </si>
+  <si>
+    <t>inj4</t>
+  </si>
+  <si>
+    <t>spark1</t>
+  </si>
+  <si>
+    <t>spark2</t>
+  </si>
+  <si>
+    <t>spark3</t>
+  </si>
+  <si>
+    <t>spark4</t>
+  </si>
+  <si>
+    <t>5V MK3</t>
+  </si>
+  <si>
+    <t>Power Box</t>
+  </si>
+  <si>
+    <t>12V Masterswitch</t>
+  </si>
+  <si>
+    <t>12V Pompe</t>
+  </si>
+  <si>
+    <t>12V ventilo</t>
+  </si>
+  <si>
+    <t>12V Motored</t>
+  </si>
+  <si>
+    <t>12V Brake light</t>
+  </si>
+  <si>
+    <t>Command pomp</t>
+  </si>
+  <si>
+    <t>Command Ventilo</t>
+  </si>
+  <si>
+    <t>12V Gearbox controller</t>
+  </si>
+  <si>
+    <t>Démarreur</t>
   </si>
 </sst>
 </file>
@@ -371,17 +614,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -395,6 +629,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,477 +934,1128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="1" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
+      <c r="M1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="3"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="I3" s="7" t="s">
+      <c r="F3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="I3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="M3" s="7" t="s">
+      <c r="J3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="M3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="9"/>
+      <c r="N3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="E4" s="7" t="s">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="I4" s="7" t="s">
+      <c r="G4" s="6"/>
+      <c r="I4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="M4" s="7" t="s">
+      <c r="J4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="M4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="9"/>
+      <c r="N4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="E5" s="7" t="s">
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="I5" s="7" t="s">
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="M5" s="11" t="s">
+      <c r="K5" s="6"/>
+      <c r="M5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="13"/>
+      <c r="N5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="E6" s="15" t="s">
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="E6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="I6" s="7" t="s">
+      <c r="F6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="I6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="9"/>
+      <c r="J6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="E7" s="16" t="s">
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="E7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="I7" s="7" t="s">
+      <c r="G7" s="10"/>
+      <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="M7" s="1" t="s">
+      <c r="J7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="M7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="I8" s="7" t="s">
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="I8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="M8" s="4" t="s">
+      <c r="J8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="M8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="I9" s="11" t="s">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="I9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="M9" s="7" t="s">
+      <c r="J9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="M9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="9"/>
+      <c r="N9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="M10" s="7" t="s">
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="M10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="9"/>
+      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="E11" s="1" t="s">
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="E11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="I11" s="1" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="I11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
-      <c r="M11" s="7" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="M11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11" s="9"/>
+      <c r="N11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="13"/>
+      <c r="N12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="E13" s="7" t="s">
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="E13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="I13" s="7" t="s">
+      <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="I13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="9"/>
+      <c r="J13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="E14" s="7" t="s">
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="E14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="I14" s="7" t="s">
+      <c r="G14" s="6"/>
+      <c r="I14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="E15" s="11" t="s">
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="E15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="I15" s="7" t="s">
+      <c r="F15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="I15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="9"/>
+      <c r="J15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="I16" s="15" t="s">
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="I16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="9"/>
+      <c r="J16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="I17" s="7" t="s">
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="I17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="9"/>
+      <c r="J17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="I18" s="11" t="s">
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="I18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="13"/>
+      <c r="J18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="17" max="17" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
+      <c r="M1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="15"/>
+      <c r="O1" s="16"/>
+      <c r="Q1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="15"/>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="I3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="M3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="Q3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="E4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="I4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="M4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="Q4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="E5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="I5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="M5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="Q5" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="I6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="M6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="Q6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="I7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="M7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="Q7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="I8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="M8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="Q8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="I9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="M9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="Q9" t="s">
+        <v>87</v>
+      </c>
+      <c r="R9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="I10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="M10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="Q10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="I11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="M11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="Q11" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="I12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="M12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="I13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="M13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="I14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="M14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="I15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="I16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="I17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="I18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="I19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="I20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="I21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/EL_Electrical/Faisceau/Récap connections.xlsx
+++ b/EL_Electrical/Faisceau/Récap connections.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobau\Documents\EPSA\Ressources2020\EL_Electrical\Faisceau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecoc\Desktop\EPSA\Ressource 2020\EL_Electrical\Faisceau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20436" windowHeight="7596" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Faisceau Avant" sheetId="1" r:id="rId1"/>
     <sheet name="Faisceau Arrière" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -191,12 +191,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>bob Aubouin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tout les capteurs du faisceau avant
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="99">
   <si>
     <t>Pare feu</t>
   </si>
@@ -469,12 +494,36 @@
   </si>
   <si>
     <t>Démarreur</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Capteurs pression d'huile</t>
+  </si>
+  <si>
+    <t>noir</t>
+  </si>
+  <si>
+    <t>vert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -629,6 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,7 +688,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,41 +970,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="E1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
-      <c r="I1" s="14" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="I1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-      <c r="M1" s="14" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
+      <c r="M1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -993,7 +1042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1007,7 +1056,9 @@
       <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="I3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1023,7 +1074,7 @@
       </c>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1037,7 +1088,9 @@
       <c r="F4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="I4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1053,7 +1106,7 @@
       </c>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1067,7 +1120,9 @@
       <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
@@ -1083,7 +1138,7 @@
       </c>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1152,9 @@
       <c r="F6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="I6" s="4" t="s">
         <v>34</v>
       </c>
@@ -1106,7 +1163,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1120,7 +1177,9 @@
       <c r="F7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1128,13 +1187,13 @@
         <v>16</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1159,7 +1218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1241,7 @@
       </c>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1198,7 +1257,7 @@
       </c>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1206,16 +1265,16 @@
         <v>16</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="I11" s="14" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="I11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
       <c r="M11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1224,7 +1283,7 @@
       </c>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -1258,7 +1317,7 @@
       </c>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1272,7 +1331,9 @@
       <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
       <c r="I13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1281,7 +1342,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1295,7 +1356,9 @@
       <c r="F14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6">
+        <v>2</v>
+      </c>
       <c r="I14" s="4" t="s">
         <v>28</v>
       </c>
@@ -1304,7 +1367,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -1318,7 +1381,9 @@
       <c r="F15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
       <c r="I15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1327,7 +1392,7 @@
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1343,7 +1408,7 @@
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1359,7 +1424,7 @@
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -1375,7 +1440,7 @@
       </c>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -1384,7 +1449,7 @@
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1393,7 +1458,7 @@
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>80</v>
       </c>
@@ -1402,7 +1467,7 @@
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>21</v>
       </c>
@@ -1411,11 +1476,11 @@
       </c>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="10"/>
@@ -1441,48 +1506,48 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="17" max="17" width="25.6640625" customWidth="1"/>
+    <col min="19" max="19" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="E1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
-      <c r="I1" s="14" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="I1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-      <c r="M1" s="14" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
+      <c r="M1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16"/>
-      <c r="Q1" s="14" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+      <c r="Q1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="16"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R1" s="16"/>
+      <c r="S1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1529,7 +1594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1543,7 +1608,9 @@
       <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6">
+        <v>3</v>
+      </c>
       <c r="I3" s="4" t="s">
         <v>47</v>
       </c>
@@ -1563,7 +1630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1577,7 +1644,9 @@
       <c r="F4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6">
+        <v>2</v>
+      </c>
       <c r="I4" s="4" t="s">
         <v>48</v>
       </c>
@@ -1599,7 +1668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1613,7 +1682,9 @@
       <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
       <c r="I5" s="4" t="s">
         <v>49</v>
       </c>
@@ -1635,7 +1706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1664,7 +1735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1672,6 +1743,11 @@
         <v>10</v>
       </c>
       <c r="C7" s="6"/>
+      <c r="E7" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
       <c r="I7" s="4" t="s">
         <v>51</v>
       </c>
@@ -1693,7 +1769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1701,6 +1777,15 @@
         <v>5</v>
       </c>
       <c r="C8" s="6"/>
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="4" t="s">
         <v>52</v>
       </c>
@@ -1722,7 +1807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1730,6 +1815,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="6"/>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
       <c r="I9" s="4" t="s">
         <v>53</v>
       </c>
@@ -1751,7 +1845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1759,6 +1853,15 @@
         <v>16</v>
       </c>
       <c r="C10" s="6"/>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3</v>
+      </c>
       <c r="I10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1780,7 +1883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1788,6 +1891,15 @@
         <v>16</v>
       </c>
       <c r="C11" s="6"/>
+      <c r="E11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2</v>
+      </c>
       <c r="I11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1809,7 +1921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -1832,7 +1944,7 @@
       </c>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1855,7 +1967,7 @@
       </c>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1873,12 +1985,12 @@
       <c r="M14" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="14" t="s">
         <v>25</v>
       </c>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -1894,7 +2006,7 @@
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1910,7 +2022,7 @@
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1926,7 +2038,7 @@
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -1942,7 +2054,7 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -1958,7 +2070,7 @@
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>80</v>
       </c>
@@ -1974,7 +2086,7 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>24</v>
       </c>
@@ -1990,7 +2102,7 @@
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>21</v>
       </c>
@@ -2005,7 +2117,7 @@
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>90</v>
       </c>
@@ -2020,7 +2132,7 @@
       </c>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I24" s="12" t="s">
         <v>63</v>
       </c>
@@ -2029,7 +2141,7 @@
       </c>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I25" s="12" t="s">
         <v>64</v>
       </c>
@@ -2038,7 +2150,7 @@
       </c>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I26" s="13" t="s">
         <v>65</v>
       </c>
@@ -2048,7 +2160,8 @@
       <c r="K26" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E7:G7"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I1:K1"/>

--- a/EL_Electrical/Faisceau/Récap connections.xlsx
+++ b/EL_Electrical/Faisceau/Récap connections.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20436" windowHeight="7596" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20436" windowHeight="7596"/>
   </bookViews>
   <sheets>
     <sheet name="Faisceau Avant" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="116">
   <si>
     <t>Pare feu</t>
   </si>
@@ -325,9 +325,6 @@
     <t>5V</t>
   </si>
   <si>
-    <t>signaux ANG</t>
-  </si>
-  <si>
     <t>switch tdb</t>
   </si>
   <si>
@@ -518,6 +515,60 @@
   </si>
   <si>
     <t>vert</t>
+  </si>
+  <si>
+    <t>FBP</t>
+  </si>
+  <si>
+    <t>RBP</t>
+  </si>
+  <si>
+    <t>Crémaillère</t>
+  </si>
+  <si>
+    <t>FL susp</t>
+  </si>
+  <si>
+    <t>RL susp</t>
+  </si>
+  <si>
+    <t>RR susp</t>
+  </si>
+  <si>
+    <t>FR susp</t>
+  </si>
+  <si>
+    <t>signaux analogique (detaillé après)</t>
+  </si>
+  <si>
+    <t>CANH1</t>
+  </si>
+  <si>
+    <t>CANL1</t>
+  </si>
+  <si>
+    <t>AN1</t>
+  </si>
+  <si>
+    <t>AN2</t>
+  </si>
+  <si>
+    <t>AN3</t>
+  </si>
+  <si>
+    <t>AN4</t>
+  </si>
+  <si>
+    <t>AN5</t>
+  </si>
+  <si>
+    <t>AN6</t>
+  </si>
+  <si>
+    <t>AN7</t>
+  </si>
+  <si>
+    <t>GIO1</t>
   </si>
 </sst>
 </file>
@@ -968,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,7 +1050,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="17"/>
       <c r="M1" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N1" s="16"/>
       <c r="O1" s="17"/>
@@ -1057,7 +1108,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>27</v>
@@ -1065,7 +1116,9 @@
       <c r="J3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="M3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1089,7 +1142,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>33</v>
@@ -1121,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>28</v>
@@ -1129,7 +1182,9 @@
       <c r="J5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="M5" s="8" t="s">
         <v>13</v>
       </c>
@@ -1153,12 +1208,12 @@
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="6"/>
@@ -1178,17 +1233,19 @@
         <v>23</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="M7" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="17"/>
@@ -1207,7 +1264,9 @@
       <c r="J8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="M8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1218,7 +1277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1226,13 +1285,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="M9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1249,8 +1310,17 @@
         <v>16</v>
       </c>
       <c r="C10" s="6"/>
+      <c r="I10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="M10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>25</v>
@@ -1266,15 +1336,19 @@
       </c>
       <c r="C11" s="6"/>
       <c r="E11" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
-      <c r="I11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
+      <c r="I11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="M11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1359,7 @@
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>16</v>
@@ -1300,14 +1374,14 @@
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
+      <c r="I12" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>6</v>
@@ -1326,7 +1400,7 @@
       </c>
       <c r="C13" s="6"/>
       <c r="E13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>10</v>
@@ -1335,12 +1409,14 @@
         <v>3</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1351,21 +1427,23 @@
       </c>
       <c r="C14" s="6"/>
       <c r="E14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="G14" s="6">
         <v>2</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -1385,14 +1463,16 @@
         <v>1</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1400,15 +1480,17 @@
         <v>16</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="I16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1416,15 +1498,8 @@
         <v>16</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="I17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -1432,13 +1507,11 @@
         <v>5</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="I18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="10"/>
+      <c r="I18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -1448,6 +1521,15 @@
         <v>23</v>
       </c>
       <c r="C19" s="6"/>
+      <c r="I19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -1457,15 +1539,29 @@
         <v>25</v>
       </c>
       <c r="C20" s="6"/>
+      <c r="I20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="6"/>
+      <c r="I21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
@@ -1475,20 +1571,52 @@
         <v>5</v>
       </c>
       <c r="C22" s="6"/>
+      <c r="I22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="10"/>
+      <c r="I23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
@@ -1505,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -1527,22 +1655,22 @@
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
       <c r="E1" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
       <c r="I1" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J1" s="16"/>
       <c r="K1" s="17"/>
       <c r="M1" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N1" s="16"/>
       <c r="O1" s="17"/>
       <c r="Q1" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R1" s="16"/>
       <c r="S1" s="17"/>
@@ -1603,7 +1731,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="E3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -1612,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
@@ -1624,7 +1752,7 @@
       </c>
       <c r="O3" s="6"/>
       <c r="Q3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R3" t="s">
         <v>23</v>
@@ -1639,30 +1767,30 @@
       </c>
       <c r="C4" s="6"/>
       <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="G4" s="6">
         <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="6"/>
       <c r="M4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="O4" s="6"/>
       <c r="Q4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R4" t="s">
         <v>5</v>
@@ -1686,21 +1814,21 @@
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="6"/>
       <c r="M5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="O5" s="6"/>
       <c r="Q5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R5" t="s">
         <v>5</v>
@@ -1715,21 +1843,21 @@
       </c>
       <c r="C6" s="6"/>
       <c r="I6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K6" s="6"/>
       <c r="M6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="6"/>
       <c r="Q6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R6" t="s">
         <v>5</v>
@@ -1744,26 +1872,26 @@
       </c>
       <c r="C7" s="6"/>
       <c r="E7" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
       <c r="I7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="6"/>
       <c r="M7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="6"/>
       <c r="Q7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R7" t="s">
         <v>10</v>
@@ -1787,14 +1915,14 @@
         <v>3</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="6"/>
       <c r="M8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>23</v>
@@ -1816,7 +1944,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -1825,21 +1953,21 @@
         <v>1</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="6"/>
       <c r="M9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="O9" s="6"/>
       <c r="Q9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R9" t="s">
         <v>5</v>
@@ -1854,10 +1982,10 @@
       </c>
       <c r="C10" s="6"/>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="6">
         <v>3</v>
@@ -1870,14 +1998,14 @@
       </c>
       <c r="K10" s="6"/>
       <c r="M10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>25</v>
       </c>
       <c r="O10" s="6"/>
       <c r="Q10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R10" t="s">
         <v>7</v>
@@ -1895,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="10">
         <v>2</v>
@@ -1908,14 +2036,14 @@
       </c>
       <c r="K11" s="6"/>
       <c r="M11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O11" s="6"/>
       <c r="Q11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R11" t="s">
         <v>10</v>
@@ -1923,21 +2051,21 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="6"/>
       <c r="I12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="6"/>
       <c r="M12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N12" s="11" t="s">
         <v>23</v>
@@ -1953,14 +2081,14 @@
       </c>
       <c r="C13" s="6"/>
       <c r="I13" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="6"/>
       <c r="M13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>7</v>
@@ -1976,14 +2104,14 @@
       </c>
       <c r="C14" s="6"/>
       <c r="I14" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="6"/>
       <c r="M14" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N14" s="14" t="s">
         <v>25</v>
@@ -1999,7 +2127,7 @@
       </c>
       <c r="C15" s="6"/>
       <c r="I15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>16</v>
@@ -2015,10 +2143,10 @@
       </c>
       <c r="C16" s="6"/>
       <c r="I16" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16" s="6"/>
     </row>
@@ -2031,7 +2159,7 @@
       </c>
       <c r="C17" s="6"/>
       <c r="I17" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>16</v>
@@ -2047,7 +2175,7 @@
       </c>
       <c r="C18" s="6"/>
       <c r="I18" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>16</v>
@@ -2072,14 +2200,14 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="6"/>
       <c r="I20" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>16</v>
@@ -2095,7 +2223,7 @@
       </c>
       <c r="C21" s="10"/>
       <c r="I21" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>16</v>
@@ -2110,7 +2238,7 @@
         <v>5</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>16</v>
@@ -2119,13 +2247,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>16</v>
@@ -2134,7 +2262,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I24" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>16</v>
@@ -2143,7 +2271,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I25" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>10</v>
@@ -2152,21 +2280,21 @@
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I26" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/EL_Electrical/Faisceau/Récap connections.xlsx
+++ b/EL_Electrical/Faisceau/Récap connections.xlsx
@@ -57,6 +57,31 @@
       </text>
     </comment>
     <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>bob Aubouin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tout les capteurs du faisceau avant
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="138">
   <si>
     <t>Pare feu</t>
   </si>
@@ -358,9 +383,6 @@
     <t>Palettes</t>
   </si>
   <si>
-    <t>Carte avant</t>
-  </si>
-  <si>
     <t>Lambda</t>
   </si>
   <si>
@@ -569,6 +591,75 @@
   </si>
   <si>
     <t>GIO1</t>
+  </si>
+  <si>
+    <t>connecteur 0835</t>
+  </si>
+  <si>
+    <t>connecteur 1497</t>
+  </si>
+  <si>
+    <t>Traction  control</t>
+  </si>
+  <si>
+    <t>Launch control</t>
+  </si>
+  <si>
+    <t>Log switch</t>
+  </si>
+  <si>
+    <t>fil bleu ecran</t>
+  </si>
+  <si>
+    <t>fil jaune ecran</t>
+  </si>
+  <si>
+    <t>neutre</t>
+  </si>
+  <si>
+    <t>homing</t>
+  </si>
+  <si>
+    <t>blue shift light</t>
+  </si>
+  <si>
+    <t>red shift light</t>
+  </si>
+  <si>
+    <t>Carte avant (extérieur)</t>
+  </si>
+  <si>
+    <t>Intérieur</t>
+  </si>
+  <si>
+    <t>bleu</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Ecran</t>
+  </si>
+  <si>
+    <t>jaune</t>
   </si>
 </sst>
 </file>
@@ -614,15 +705,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -710,11 +807,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -739,6 +899,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,9 +1212,10 @@
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.109375" customWidth="1"/>
     <col min="13" max="13" width="14.88671875" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1237,7 @@
       <c r="N1" s="16"/>
       <c r="O1" s="17"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1093,7 +1275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1108,7 +1290,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>27</v>
@@ -1127,7 +1309,7 @@
       </c>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1142,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>33</v>
@@ -1159,7 +1341,7 @@
       </c>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1174,7 +1356,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>28</v>
@@ -1183,7 +1365,7 @@
         <v>25</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>13</v>
@@ -1193,7 +1375,7 @@
       </c>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1208,17 +1390,17 @@
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1233,7 +1415,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>34</v>
@@ -1242,15 +1424,18 @@
         <v>16</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1265,19 +1450,16 @@
         <v>5</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="17"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1292,17 +1474,22 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1311,23 +1498,28 @@
       </c>
       <c r="C10" s="6"/>
       <c r="I10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="O10" s="5">
+        <v>3</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1341,23 +1533,28 @@
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
       <c r="I11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="5">
         <v>4</v>
       </c>
-      <c r="N11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P11" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>43</v>
       </c>
@@ -1375,23 +1572,28 @@
         <v>3</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1409,16 +1611,28 @@
         <v>3</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="9">
+        <v>2</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1436,16 +1650,22 @@
         <v>2</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="17"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -1463,16 +1683,28 @@
         <v>1</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1481,16 +1713,26 @@
       </c>
       <c r="C16" s="6"/>
       <c r="I16" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1498,8 +1740,18 @@
         <v>16</v>
       </c>
       <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -1507,13 +1759,28 @@
         <v>5</v>
       </c>
       <c r="C18" s="6"/>
+      <c r="E18" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
       <c r="I18" s="15" t="s">
         <v>39</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -1521,6 +1788,15 @@
         <v>23</v>
       </c>
       <c r="C19" s="6"/>
+      <c r="E19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1530,8 +1806,18 @@
       <c r="K19" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1539,6 +1825,15 @@
         <v>25</v>
       </c>
       <c r="C20" s="6"/>
+      <c r="E20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="6">
+        <v>3</v>
+      </c>
       <c r="I20" s="4" t="s">
         <v>27</v>
       </c>
@@ -1546,15 +1841,34 @@
         <v>10</v>
       </c>
       <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="6"/>
+      <c r="E21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
       <c r="I21" s="4" t="s">
         <v>28</v>
       </c>
@@ -1562,8 +1876,18 @@
         <v>25</v>
       </c>
       <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M21" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>21</v>
       </c>
@@ -1571,6 +1895,15 @@
         <v>5</v>
       </c>
       <c r="C22" s="6"/>
+      <c r="E22" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2</v>
+      </c>
       <c r="I22" s="4" t="s">
         <v>17</v>
       </c>
@@ -1578,10 +1911,20 @@
         <v>16</v>
       </c>
       <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M22" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>7</v>
@@ -1594,8 +1937,18 @@
         <v>16</v>
       </c>
       <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M23" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="P23" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I24" s="4" t="s">
         <v>41</v>
       </c>
@@ -1603,8 +1956,18 @@
         <v>10</v>
       </c>
       <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M24" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I25" s="8" t="s">
         <v>40</v>
       </c>
@@ -1612,9 +1975,31 @@
         <v>10</v>
       </c>
       <c r="K25" s="10"/>
+      <c r="M25" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="M1:O1"/>
@@ -1622,6 +2007,9 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1660,17 +2048,17 @@
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
       <c r="I1" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J1" s="16"/>
       <c r="K1" s="17"/>
       <c r="M1" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N1" s="16"/>
       <c r="O1" s="17"/>
       <c r="Q1" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R1" s="16"/>
       <c r="S1" s="17"/>
@@ -1740,7 +2128,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
@@ -1752,7 +2140,7 @@
       </c>
       <c r="O3" s="6"/>
       <c r="Q3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R3" t="s">
         <v>23</v>
@@ -1776,21 +2164,21 @@
         <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="6"/>
       <c r="M4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="O4" s="6"/>
       <c r="Q4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R4" t="s">
         <v>5</v>
@@ -1814,21 +2202,21 @@
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="6"/>
       <c r="M5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="O5" s="6"/>
       <c r="Q5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R5" t="s">
         <v>5</v>
@@ -1843,21 +2231,21 @@
       </c>
       <c r="C6" s="6"/>
       <c r="I6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K6" s="6"/>
       <c r="M6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="6"/>
       <c r="Q6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R6" t="s">
         <v>5</v>
@@ -1872,26 +2260,26 @@
       </c>
       <c r="C7" s="6"/>
       <c r="E7" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
       <c r="I7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="6"/>
       <c r="M7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="6"/>
       <c r="Q7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R7" t="s">
         <v>10</v>
@@ -1915,14 +2303,14 @@
         <v>3</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="6"/>
       <c r="M8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>23</v>
@@ -1953,21 +2341,21 @@
         <v>1</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="6"/>
       <c r="M9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="O9" s="6"/>
       <c r="Q9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R9" t="s">
         <v>5</v>
@@ -1985,7 +2373,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="6">
         <v>3</v>
@@ -1998,14 +2386,14 @@
       </c>
       <c r="K10" s="6"/>
       <c r="M10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>25</v>
       </c>
       <c r="O10" s="6"/>
       <c r="Q10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R10" t="s">
         <v>7</v>
@@ -2023,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" s="10">
         <v>2</v>
@@ -2036,14 +2424,14 @@
       </c>
       <c r="K11" s="6"/>
       <c r="M11" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O11" s="6"/>
       <c r="Q11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R11" t="s">
         <v>10</v>
@@ -2058,14 +2446,14 @@
       </c>
       <c r="C12" s="6"/>
       <c r="I12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="6"/>
       <c r="M12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N12" s="11" t="s">
         <v>23</v>
@@ -2081,14 +2469,14 @@
       </c>
       <c r="C13" s="6"/>
       <c r="I13" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="6"/>
       <c r="M13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>7</v>
@@ -2104,14 +2492,14 @@
       </c>
       <c r="C14" s="6"/>
       <c r="I14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="6"/>
       <c r="M14" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N14" s="14" t="s">
         <v>25</v>
@@ -2127,7 +2515,7 @@
       </c>
       <c r="C15" s="6"/>
       <c r="I15" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>16</v>
@@ -2143,7 +2531,7 @@
       </c>
       <c r="C16" s="6"/>
       <c r="I16" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>38</v>
@@ -2159,7 +2547,7 @@
       </c>
       <c r="C17" s="6"/>
       <c r="I17" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>16</v>
@@ -2175,7 +2563,7 @@
       </c>
       <c r="C18" s="6"/>
       <c r="I18" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>16</v>
@@ -2200,14 +2588,14 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="6"/>
       <c r="I20" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>16</v>
@@ -2223,7 +2611,7 @@
       </c>
       <c r="C21" s="10"/>
       <c r="I21" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>16</v>
@@ -2238,7 +2626,7 @@
         <v>5</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>16</v>
@@ -2247,13 +2635,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>16</v>
@@ -2262,7 +2650,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I24" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>16</v>
@@ -2271,7 +2659,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I25" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>10</v>
@@ -2280,7 +2668,7 @@
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I26" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>38</v>

--- a/EL_Electrical/Faisceau/Récap connections.xlsx
+++ b/EL_Electrical/Faisceau/Récap connections.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecoc\Desktop\EPSA\Ressource 2020\EL_Electrical\Faisceau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20436" windowHeight="7596"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20436" windowHeight="7596" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Faisceau Avant" sheetId="1" r:id="rId1"/>
@@ -114,6 +114,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>bob Aubouin</author>
+    <author>Corentin Lepais</author>
   </authors>
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0">
@@ -241,12 +242,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="C23" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Corentin Lepais:
+Pas de sortie côté arrière. A vérifier si ca marche sans sinon à rajouter</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="185">
   <si>
     <t>Pare feu</t>
   </si>
@@ -380,9 +396,6 @@
     <t>pression frein arrière</t>
   </si>
   <si>
-    <t>Palettes</t>
-  </si>
-  <si>
     <t>Lambda</t>
   </si>
   <si>
@@ -660,13 +673,157 @@
   </si>
   <si>
     <t>jaune</t>
+  </si>
+  <si>
+    <t>Carte arrière (extérieur)</t>
+  </si>
+  <si>
+    <t>connecteur 1099</t>
+  </si>
+  <si>
+    <t>connecteur 1699</t>
+  </si>
+  <si>
+    <t>Power 12 V</t>
+  </si>
+  <si>
+    <t>Power GND</t>
+  </si>
+  <si>
+    <t>OUT 1</t>
+  </si>
+  <si>
+    <t>OUT 2</t>
+  </si>
+  <si>
+    <t>OUT 3</t>
+  </si>
+  <si>
+    <t>OUT 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les entrées sorties vers le motored sont nommées en fonction de si les signaux rentrent ou sortent de la carte </t>
+  </si>
+  <si>
+    <t>rouge</t>
+  </si>
+  <si>
+    <t>IN0</t>
+  </si>
+  <si>
+    <t>IN1</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Neutre sensor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>12V injecteur</t>
+  </si>
+  <si>
+    <t>Palettes (coté faisceau)</t>
+  </si>
+  <si>
+    <t>côté volant</t>
+  </si>
+  <si>
+    <t>jaune-vert / rouge</t>
+  </si>
+  <si>
+    <t>Bleu /jaune</t>
+  </si>
+  <si>
+    <t>marron /blanc</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>violet</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rouge </t>
+  </si>
+  <si>
+    <t>noire</t>
+  </si>
+  <si>
+    <t>Log (1)</t>
+  </si>
+  <si>
+    <t>Shifter pot (3)</t>
+  </si>
+  <si>
+    <t>Launch (4)</t>
+  </si>
+  <si>
+    <t>GNDDTA (33)</t>
+  </si>
+  <si>
+    <t>Shift cut (14)</t>
+  </si>
+  <si>
+    <t>Traction (8)</t>
+  </si>
+  <si>
+    <t>Wet/dry (11)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,8 +861,29 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -718,8 +896,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -870,11 +1054,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -890,6 +1087,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -905,21 +1146,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1202,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1216,26 +1448,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="E1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-      <c r="I1" s="15" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="I1" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
-      <c r="M1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="M1" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="39" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1274,6 +1509,9 @@
       <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="P2" s="40" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1282,7 +1520,9 @@
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1290,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>27</v>
@@ -1307,7 +1547,12 @@
       <c r="N3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="6"/>
+      <c r="O3" s="6">
+        <v>1</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1316,7 +1561,9 @@
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
@@ -1324,7 +1571,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>33</v>
@@ -1339,7 +1586,12 @@
       <c r="N4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="6"/>
+      <c r="O4" s="6">
+        <v>2</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
@@ -1348,7 +1600,9 @@
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
@@ -1356,7 +1610,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>28</v>
@@ -1365,7 +1619,7 @@
         <v>25</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>13</v>
@@ -1373,7 +1627,12 @@
       <c r="N5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="10"/>
+      <c r="O5" s="10">
+        <v>3</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
@@ -1382,7 +1641,9 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>30</v>
       </c>
@@ -1390,10 +1651,10 @@
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>16</v>
@@ -1407,7 +1668,9 @@
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="E7" s="13" t="s">
         <v>31</v>
       </c>
@@ -1415,7 +1678,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>34</v>
@@ -1424,15 +1687,15 @@
         <v>16</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="22" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="23.4" x14ac:dyDescent="0.45">
@@ -1442,7 +1705,9 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="I8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1450,14 +1715,14 @@
         <v>5</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1466,7 +1731,9 @@
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="I9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1474,7 +1741,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>1</v>
@@ -1485,7 +1752,7 @@
       <c r="O9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="23" t="s">
+      <c r="P9" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1496,15 +1763,17 @@
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="I10" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>27</v>
@@ -1515,7 +1784,7 @@
       <c r="O10" s="5">
         <v>3</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="P10" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1526,20 +1795,22 @@
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="E11" s="15" t="s">
+      <c r="C11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
       <c r="I11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>37</v>
@@ -1550,7 +1821,7 @@
       <c r="O11" s="5">
         <v>4</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1561,7 +1832,9 @@
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1572,13 +1845,13 @@
         <v>3</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>4</v>
@@ -1589,7 +1862,7 @@
       <c r="O12" s="5">
         <v>1</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="P12" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1600,7 +1873,9 @@
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>36</v>
       </c>
@@ -1611,13 +1886,13 @@
         <v>3</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>6</v>
@@ -1628,7 +1903,7 @@
       <c r="O13" s="9">
         <v>2</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="P13" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1639,7 +1914,9 @@
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="E14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1650,20 +1927,20 @@
         <v>2</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="17"/>
+        <v>110</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="43"/>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -1683,13 +1960,13 @@
         <v>1</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>1</v>
@@ -1700,7 +1977,7 @@
       <c r="O15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="P15" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1711,24 +1988,26 @@
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="I16" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="P16" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1739,15 +2018,17 @@
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="M17" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="P17" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1758,25 +2039,27 @@
       <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="E18" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="I18" s="15" t="s">
+      <c r="C18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="I18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
       <c r="M18" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P18" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1787,7 +2070,9 @@
       <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1807,13 +2092,13 @@
         <v>3</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="P19" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1824,7 +2109,9 @@
       <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="E20" s="4" t="s">
         <v>36</v>
       </c>
@@ -1841,30 +2128,32 @@
         <v>10</v>
       </c>
       <c r="K20" s="6"/>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="P20" s="26" t="s">
+      <c r="N20" s="20"/>
+      <c r="O20" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="E21" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" s="6">
         <v>1</v>
@@ -1877,29 +2166,31 @@
       </c>
       <c r="K21" s="6"/>
       <c r="M21" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="P21" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>150</v>
+      </c>
       <c r="E22" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G22" s="10">
         <v>2</v>
@@ -1912,24 +2203,26 @@
       </c>
       <c r="K22" s="6"/>
       <c r="M22" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="P22" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="P22" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="I23" s="12" t="s">
         <v>42</v>
       </c>
@@ -1938,13 +2231,13 @@
       </c>
       <c r="K23" s="6"/>
       <c r="M23" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="P23" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1957,13 +2250,13 @@
       </c>
       <c r="K24" s="6"/>
       <c r="M24" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="P24" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="P24" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1975,26 +2268,26 @@
         <v>10</v>
       </c>
       <c r="K25" s="10"/>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25" t="s">
+      <c r="N26" s="24"/>
+      <c r="O26" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="P25" s="26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M26" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="P26" s="30" t="s">
+      <c r="P26" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2019,10 +2312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="J20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2032,36 +2325,37 @@
     <col min="11" max="11" width="16.6640625" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" customWidth="1"/>
     <col min="17" max="17" width="25.6640625" customWidth="1"/>
     <col min="19" max="19" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="E1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-      <c r="I1" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
-      <c r="M1" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
-      <c r="Q1" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="17"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="I1" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="M1" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
+      <c r="Q1" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="42"/>
+      <c r="S1" s="43"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2117,7 +2411,9 @@
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>36</v>
       </c>
@@ -2128,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
@@ -2140,7 +2436,7 @@
       </c>
       <c r="O3" s="6"/>
       <c r="Q3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s">
         <v>23</v>
@@ -2153,7 +2449,9 @@
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>37</v>
       </c>
@@ -2164,21 +2462,21 @@
         <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="6"/>
       <c r="M4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="O4" s="6"/>
       <c r="Q4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R4" t="s">
         <v>5</v>
@@ -2191,7 +2489,9 @@
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="E5" s="8" t="s">
         <v>1</v>
       </c>
@@ -2202,21 +2502,21 @@
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="6"/>
       <c r="M5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="O5" s="6"/>
       <c r="Q5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R5" t="s">
         <v>5</v>
@@ -2229,23 +2529,25 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="I6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K6" s="6"/>
       <c r="M6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="6"/>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R6" t="s">
         <v>5</v>
@@ -2258,28 +2560,30 @@
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="E7" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="C7" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
       <c r="I7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="6"/>
       <c r="M7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="6"/>
       <c r="Q7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R7" t="s">
         <v>10</v>
@@ -2292,7 +2596,9 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
@@ -2303,14 +2609,14 @@
         <v>3</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="6"/>
       <c r="M8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>23</v>
@@ -2330,7 +2636,9 @@
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>36</v>
       </c>
@@ -2341,21 +2649,21 @@
         <v>1</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="6"/>
       <c r="M9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="O9" s="6"/>
       <c r="Q9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R9" t="s">
         <v>5</v>
@@ -2368,12 +2676,14 @@
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" s="6">
         <v>3</v>
@@ -2386,14 +2696,14 @@
       </c>
       <c r="K10" s="6"/>
       <c r="M10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>25</v>
       </c>
       <c r="O10" s="6"/>
       <c r="Q10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
         <v>7</v>
@@ -2406,12 +2716,14 @@
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="E11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="10">
         <v>2</v>
@@ -2424,14 +2736,14 @@
       </c>
       <c r="K11" s="6"/>
       <c r="M11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O11" s="6"/>
       <c r="Q11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R11" t="s">
         <v>10</v>
@@ -2444,16 +2756,18 @@
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="I12" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="6"/>
       <c r="M12" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N12" s="11" t="s">
         <v>23</v>
@@ -2467,16 +2781,18 @@
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="I13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="6"/>
       <c r="M13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>7</v>
@@ -2490,16 +2806,18 @@
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="I14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="6"/>
       <c r="M14" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N14" s="14" t="s">
         <v>25</v>
@@ -2515,69 +2833,91 @@
       </c>
       <c r="C15" s="6"/>
       <c r="I15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="I16" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>38</v>
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="I17" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M17" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="I18" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M18" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="43"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="I19" s="12" t="s">
         <v>17</v>
       </c>
@@ -2585,106 +2925,446 @@
         <v>16</v>
       </c>
       <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="I20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="M20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="I21" s="12" t="s">
+      <c r="J21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="M21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="12" t="s">
+      <c r="J22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="M22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="J23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="M23" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="M24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="O24" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="12" t="s">
+      <c r="P24" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>10</v>
       </c>
       <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M25" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I26" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>38</v>
       </c>
       <c r="K26" s="10"/>
+      <c r="M26" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="43"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M28" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="O28" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="P28" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M29" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="N29" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="O29" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M32" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M33" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M34" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M35" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O35" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M36" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="N36" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O36" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="P36" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M37" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O37" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="P37" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M38" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O38" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="P38" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M39" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O39" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="P39" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M40" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O40" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="P40" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M41" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="N41" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="P41" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="13:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M42" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="N42" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="O42" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="P42" s="32" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="Q1:S1"/>
+  <mergeCells count="10">
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q19:S21"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/EL_Electrical/Faisceau/Récap connections.xlsx
+++ b/EL_Electrical/Faisceau/Récap connections.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20436" windowHeight="7596" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20436" windowHeight="7596"/>
   </bookViews>
   <sheets>
     <sheet name="Faisceau Avant" sheetId="1" r:id="rId1"/>
     <sheet name="Faisceau Arrière" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="187">
   <si>
     <t>Pare feu</t>
   </si>
@@ -817,6 +817,12 @@
   </si>
   <si>
     <t>Wet/dry (11)</t>
+  </si>
+  <si>
+    <t>Display button</t>
+  </si>
+  <si>
+    <t>5 ou 6</t>
   </si>
 </sst>
 </file>
@@ -1432,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1854,19 +1860,15 @@
         <v>108</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="5">
-        <v>1</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1894,20 +1896,20 @@
       <c r="K13" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" s="9">
-        <v>2</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1935,14 +1937,20 @@
       <c r="K14" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="M14" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="43"/>
-    </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="9">
+        <v>2</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -1968,18 +1976,12 @@
       <c r="K15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="M15" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="43"/>
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -2000,15 +2002,17 @@
       <c r="K16" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>23</v>
+      <c r="M16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2022,11 +2026,11 @@
         <v>88</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N17" s="5"/>
-      <c r="O17" s="5" t="s">
-        <v>134</v>
+      <c r="O17" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>23</v>
@@ -2053,14 +2057,14 @@
       <c r="J18" s="42"/>
       <c r="K18" s="43"/>
       <c r="M18" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="N18" s="11"/>
+        <v>117</v>
+      </c>
+      <c r="N18" s="5"/>
       <c r="O18" s="5" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -2092,11 +2096,11 @@
         <v>3</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="11" t="s">
-        <v>133</v>
+        <v>118</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>7</v>
@@ -2128,15 +2132,15 @@
         <v>10</v>
       </c>
       <c r="K20" s="6"/>
-      <c r="M20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="P20" s="21" t="s">
-        <v>10</v>
+      <c r="M20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2165,15 +2169,15 @@
         <v>25</v>
       </c>
       <c r="K21" s="6"/>
-      <c r="M21" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>5</v>
+      <c r="M21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2203,14 +2207,14 @@
       </c>
       <c r="K22" s="6"/>
       <c r="M22" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2231,14 +2235,14 @@
       </c>
       <c r="K23" s="6"/>
       <c r="M23" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="11" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2250,14 +2254,14 @@
       </c>
       <c r="K24" s="6"/>
       <c r="M24" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2268,26 +2272,38 @@
         <v>10</v>
       </c>
       <c r="K25" s="10"/>
-      <c r="M25" s="22" t="s">
+      <c r="M25" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M26" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20" t="s">
+      <c r="N26" s="20"/>
+      <c r="O26" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="P25" s="21" t="s">
+      <c r="P26" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M26" s="23" t="s">
+    <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M27" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24" t="s">
+      <c r="N27" s="24"/>
+      <c r="O27" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="P26" s="25" t="s">
+      <c r="P27" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2301,7 +2317,7 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M15:P15"/>
     <mergeCell ref="E18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2314,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3352,16 +3368,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q19:S21"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q19:S21"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/EL_Electrical/Faisceau/Récap connections.xlsx
+++ b/EL_Electrical/Faisceau/Récap connections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\EPSA\Ressources2020\EL_Electrical\Faisceau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\EPSA\Ressource2020\EL_Electrical\Faisceau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Faisceau Avant" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Connexion connecteur usb boite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -271,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="196">
   <si>
     <t>Pare feu</t>
   </si>
@@ -847,6 +846,18 @@
   </si>
   <si>
     <t>non connecté</t>
+  </si>
+  <si>
+    <t>Couleur outbox</t>
+  </si>
+  <si>
+    <t>couleur inbox</t>
+  </si>
+  <si>
+    <t>12 (molex 3)</t>
+  </si>
+  <si>
+    <t>11 (molex 2)</t>
   </si>
 </sst>
 </file>
@@ -927,7 +938,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1049,21 +1060,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1126,6 +1159,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1456,889 +1553,925 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="M1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="4" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="8">
         <v>1</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="M4" s="9" t="s">
+      <c r="K4" s="8"/>
+      <c r="M4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="8">
         <v>2</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="13">
         <v>3</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:16" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+      <c r="J6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="20" t="s">
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="11" t="s">
+      <c r="J10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="7">
         <v>3</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="I11" s="9" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="I11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="11" t="s">
+      <c r="J11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="7">
         <v>4</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="11" t="s">
+      <c r="J12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="9">
         <v>5</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="8">
         <v>3</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="11" t="s">
+      <c r="J13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="7">
         <v>1</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="8">
         <v>2</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="11" t="s">
+      <c r="J14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="12">
         <v>2</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="8"/>
+      <c r="E15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="16">
+      <c r="F15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="13">
         <v>1</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="11" t="s">
+      <c r="J15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="16" t="s">
+      <c r="J16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="21" t="s">
+      <c r="P16" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="12" t="s">
+      <c r="N17" s="7"/>
+      <c r="O17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="P17" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="I18" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="M18" s="9" t="s">
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10" t="s">
+      <c r="N18" s="7"/>
+      <c r="O18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="13" t="s">
+      <c r="P18" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="J19" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="N19" s="12"/>
-      <c r="O19" s="10" t="s">
+      <c r="N19" s="9"/>
+      <c r="O19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P19" s="13" t="s">
+      <c r="P19" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="59">
         <v>3</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="M20" s="9" t="s">
+      <c r="K20" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="52">
+        <v>1</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="12" t="s">
+      <c r="N20" s="7"/>
+      <c r="O20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="P20" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="59">
         <v>1</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="11"/>
-      <c r="M21" s="22" t="s">
+      <c r="K21" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="52">
+        <v>2</v>
+      </c>
+      <c r="M21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23" t="s">
+      <c r="N21" s="20"/>
+      <c r="O21" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="P21" s="24" t="s">
+      <c r="P21" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="60">
         <v>2</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="M22" s="18" t="s">
+      <c r="J22" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="M22" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="12" t="s">
+      <c r="N22" s="7"/>
+      <c r="O22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P22" s="13" t="s">
+      <c r="P22" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="11"/>
-      <c r="M23" s="18" t="s">
+      <c r="J23" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="12" t="s">
+      <c r="N23" s="7"/>
+      <c r="O23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="P23" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I24" s="9" t="s">
+      <c r="P23" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I24" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="M24" s="18" t="s">
+      <c r="K24" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="L24" s="52">
+        <v>13</v>
+      </c>
+      <c r="M24" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="12" t="s">
+      <c r="N24" s="7"/>
+      <c r="O24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="13" t="s">
+      <c r="P24" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I25" s="14" t="s">
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="16"/>
-      <c r="M25" s="18" t="s">
+      <c r="K25" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="L25" s="55">
+        <v>3</v>
+      </c>
+      <c r="M25" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="12" t="s">
+      <c r="N25" s="7"/>
+      <c r="O25" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="P25" s="13" t="s">
+      <c r="P25" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M26" s="22" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M26" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23" t="s">
+      <c r="N26" s="20"/>
+      <c r="O26" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="P26" s="24" t="s">
+      <c r="P26" s="21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M27" s="26" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M27" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27" t="s">
+      <c r="N27" s="24"/>
+      <c r="O27" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="25" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I18:L18"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2354,123 +2487,123 @@
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1"/>
-    <col min="16" max="16" width="18.5546875" customWidth="1"/>
-    <col min="17" max="17" width="25.6640625" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="M1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="Q1" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="8">
         <v>3</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="M3" s="9" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="M3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="11"/>
+      <c r="O3" s="8"/>
       <c r="Q3" t="s">
         <v>117</v>
       </c>
@@ -2478,39 +2611,39 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <v>2</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="M4" s="9" t="s">
+      <c r="K4" s="8"/>
+      <c r="M4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="11"/>
+      <c r="O4" s="8"/>
       <c r="Q4" t="s">
         <v>119</v>
       </c>
@@ -2518,39 +2651,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="16">
+      <c r="F5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="13">
         <v>1</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="M5" s="9" t="s">
+      <c r="K5" s="8"/>
+      <c r="M5" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="11"/>
+      <c r="O5" s="8"/>
       <c r="Q5" t="s">
         <v>122</v>
       </c>
@@ -2558,30 +2691,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="M6" s="9" t="s">
+      <c r="K6" s="8"/>
+      <c r="M6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="11"/>
+      <c r="O6" s="8"/>
       <c r="Q6" t="s">
         <v>124</v>
       </c>
@@ -2589,35 +2722,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="I7" s="9" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="I7" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="M7" s="9" t="s">
+      <c r="K7" s="8"/>
+      <c r="M7" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="11"/>
+      <c r="O7" s="8"/>
       <c r="Q7" t="s">
         <v>128</v>
       </c>
@@ -2625,39 +2758,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="M8" s="9" t="s">
+      <c r="K8" s="8"/>
+      <c r="M8" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="11"/>
+      <c r="O8" s="8"/>
       <c r="Q8" t="s">
         <v>70</v>
       </c>
@@ -2665,39 +2798,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="8">
         <v>1</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="M9" s="9" t="s">
+      <c r="K9" s="8"/>
+      <c r="M9" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="11"/>
+      <c r="O9" s="8"/>
       <c r="Q9" t="s">
         <v>133</v>
       </c>
@@ -2705,39 +2838,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="8">
         <v>3</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="M10" s="9" t="s">
+      <c r="K10" s="8"/>
+      <c r="M10" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="11"/>
+      <c r="O10" s="8"/>
       <c r="Q10" t="s">
         <v>136</v>
       </c>
@@ -2745,39 +2878,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="13">
         <v>2</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="M11" s="9" t="s">
+      <c r="K11" s="8"/>
+      <c r="M11" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="11"/>
+      <c r="O11" s="8"/>
       <c r="Q11" t="s">
         <v>139</v>
       </c>
@@ -2785,619 +2918,619 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="M12" s="9" t="s">
+      <c r="J12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="M12" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="M13" s="9" t="s">
+      <c r="J13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="M13" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="M14" s="14" t="s">
+      <c r="J14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="M14" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="N14" s="25" t="s">
+      <c r="N14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="16"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="I15" s="18" t="s">
+      <c r="C15" s="8"/>
+      <c r="I15" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="J15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="11"/>
-      <c r="M17" s="2" t="s">
+      <c r="J17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="M17" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="20" t="s">
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="M18" s="3" t="s">
+      <c r="J18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="M18" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+    </row>
+    <row r="19" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="M19" s="5" t="s">
+      <c r="J19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="M19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="O19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P19" s="21" t="s">
+      <c r="P19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="M20" s="9" t="s">
+      <c r="J20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="M20" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="N20" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O20" s="10" t="s">
+      <c r="O20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="P20" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="M21" s="9" t="s">
+      <c r="J21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="M21" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="N21" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="O21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P21" s="13" t="s">
+      <c r="P21" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="M22" s="9" t="s">
+      <c r="J22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="M22" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="O22" s="10" t="s">
+      <c r="O22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P22" s="13" t="s">
+      <c r="P22" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="11"/>
-      <c r="M23" s="9" t="s">
+      <c r="J23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="M23" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N23" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P23" s="13" t="s">
+      <c r="P23" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="I24" s="18" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I24" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="11"/>
-      <c r="M24" s="9" t="s">
+      <c r="J24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="M24" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="N24" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="O24" s="10" t="s">
+      <c r="O24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P24" s="13" t="s">
+      <c r="P24" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="I25" s="18" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I25" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="M25" s="14" t="s">
+      <c r="K25" s="8"/>
+      <c r="M25" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="O25" s="15" t="s">
+      <c r="O25" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="P25" s="17" t="s">
+      <c r="P25" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="I26" s="19" t="s">
+    <row r="26" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="I26" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K26" s="16"/>
-      <c r="M26" s="3" t="s">
+      <c r="K26" s="13"/>
+      <c r="M26" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M27" s="5" t="s">
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="O27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="21" t="s">
+      <c r="P27" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M28" s="32" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M28" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="N28" s="33" t="s">
+      <c r="N28" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="O28" s="33" t="s">
+      <c r="O28" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="P28" s="34" t="s">
+      <c r="P28" s="31" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M29" s="32" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M29" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="N29" s="33" t="s">
+      <c r="N29" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="O29" s="33" t="s">
+      <c r="O29" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="P29" s="34" t="s">
+      <c r="P29" s="31" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M30" s="9" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N30" s="12" t="s">
+      <c r="N30" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="O30" s="10" t="s">
+      <c r="O30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P30" s="13" t="s">
+      <c r="P30" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M31" s="9" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N31" s="10" t="s">
+      <c r="N31" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="O31" s="12" t="s">
+      <c r="O31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P31" s="13" t="s">
+      <c r="P31" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M32" s="35" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M32" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="N32" s="36" t="s">
+      <c r="N32" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="O32" s="36" t="s">
+      <c r="O32" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="P32" s="37" t="s">
+      <c r="P32" s="34" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M33" s="35" t="s">
+    <row r="33" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M33" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="36" t="s">
+      <c r="N33" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="O33" s="36" t="s">
+      <c r="O33" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="P33" s="37" t="s">
+      <c r="P33" s="34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M34" s="35" t="s">
+    <row r="34" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M34" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="N34" s="36" t="s">
+      <c r="N34" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="O34" s="36" t="s">
+      <c r="O34" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="P34" s="37" t="s">
+      <c r="P34" s="34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M35" s="35" t="s">
+    <row r="35" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M35" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="N35" s="36" t="s">
+      <c r="N35" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="O35" s="36" t="s">
+      <c r="O35" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="P35" s="37" t="s">
+      <c r="P35" s="34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M36" s="35" t="s">
+    <row r="36" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M36" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="N36" s="36" t="s">
+      <c r="N36" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="O36" s="36" t="s">
+      <c r="O36" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="P36" s="37" t="s">
+      <c r="P36" s="34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M37" s="35" t="s">
+    <row r="37" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M37" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="N37" s="36" t="s">
+      <c r="N37" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="O37" s="36" t="s">
+      <c r="O37" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P37" s="37" t="s">
+      <c r="P37" s="34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M38" s="35" t="s">
+    <row r="38" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M38" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="N38" s="36" t="s">
+      <c r="N38" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="O38" s="36" t="s">
+      <c r="O38" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="P38" s="37" t="s">
+      <c r="P38" s="34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M39" s="35" t="s">
+    <row r="39" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M39" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="N39" s="36" t="s">
+      <c r="N39" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="O39" s="36" t="s">
+      <c r="O39" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="P39" s="37" t="s">
+      <c r="P39" s="34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M40" s="35" t="s">
+    <row r="40" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M40" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="N40" s="36" t="s">
+      <c r="N40" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="O40" s="36" t="s">
+      <c r="O40" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="P40" s="37" t="s">
+      <c r="P40" s="34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M41" s="35" t="s">
+    <row r="41" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M41" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="N41" s="36" t="s">
+      <c r="N41" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="O41" s="36" t="s">
+      <c r="O41" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="P41" s="37" t="s">
+      <c r="P41" s="34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M42" s="38" t="s">
+    <row r="42" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M42" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="N42" s="39" t="s">
+      <c r="N42" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="O42" s="39" t="s">
+      <c r="O42" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="P42" s="40" t="s">
+      <c r="P42" s="37" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="M18:P18"/>
     <mergeCell ref="Q19:S21"/>
     <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3409,82 +3542,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="40" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="43"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="40"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="40" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="43"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
